--- a/2_specs/domain/csp_fair.xlsx
+++ b/2_specs/domain/csp_fair.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Label</t>
   </si>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Full</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>全文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,14 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Employers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参展雇主数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SalesStart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,14 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Short</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AudienceTypeId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用于信息推送；允许为空，此时推送对象为全部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -389,15 +369,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PosterName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>New=0;Booking=1;Holding=2;Closed=3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ViewName：为空则为默认的视图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudienceConditionXml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1146,13 +1138,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>52</v>
@@ -1252,7 +1244,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A31" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A29" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1287,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>60</v>
@@ -1320,10 +1312,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>25</v>
@@ -1349,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>3</v>
@@ -1376,10 +1368,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>13</v>
@@ -1407,10 +1399,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>13</v>
@@ -1438,10 +1430,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>27</v>
@@ -1451,7 +1443,7 @@
       <c r="G11" s="41"/>
       <c r="H11" s="39"/>
       <c r="I11" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="32"/>
@@ -1460,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1468,49 +1460,51 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>67</v>
-      </c>
       <c r="D12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="39"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="37"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="39"/>
       <c r="K13" s="15"/>
       <c r="L13" s="16" t="b">
@@ -1525,28 +1519,30 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="39" t="b">
-        <v>1</v>
-      </c>
+      <c r="H14" s="39"/>
       <c r="I14" s="42"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="35"/>
+      <c r="M14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -1554,15 +1550,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="41">
+        <v>50</v>
+      </c>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="39" t="b">
@@ -1574,11 +1572,9 @@
       <c r="L15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="M15" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="M15" s="16"/>
       <c r="N15" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1587,32 +1583,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="41">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="39" t="b">
-        <v>1</v>
-      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="42"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="35" t="s">
-        <v>96</v>
-      </c>
+      <c r="N16" s="35"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
@@ -1620,13 +1608,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" s="39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -1645,13 +1633,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="39" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -1662,7 +1650,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="35"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
@@ -1670,13 +1658,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>77</v>
-      </c>
       <c r="D19" s="39" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -1687,7 +1675,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
@@ -1695,45 +1683,39 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>79</v>
-      </c>
       <c r="D20" s="39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="42"/>
       <c r="J20" s="39"/>
       <c r="K20" s="15"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="24"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -1775,7 +1757,7 @@
       <c r="K23" s="15"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
@@ -1803,14 +1785,14 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="34"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="24"/>
@@ -1839,26 +1821,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="34"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="24"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="23"/>
       <c r="D28" s="15"/>
       <c r="E28" s="7"/>
@@ -1870,75 +1852,37 @@
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="24"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="14">
+      <c r="A29" s="19">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13:K13 J4:J8 H4:H31 L13:M31 K14:K31 K4:M12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:K12 J4:J8 K4:M11 L12:M29 K13:K29 H4:H29">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J12 J14:J31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J11 J13:J29">
       <formula1>"√"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D29">
       <formula1>DataType</formula1>
     </dataValidation>
   </dataValidations>
